--- a/experiments-data.xlsx
+++ b/experiments-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pojsl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\icpproj\IMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759000B-AFC3-449A-A162-8E9D3C6A6E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA5EFCE-E3CD-4509-9EBF-434577F3B210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="2340" windowWidth="11625" windowHeight="8535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="645" windowWidth="11625" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Kordy</t>
   </si>
@@ -97,6 +97,39 @@
   <si>
     <t>Zrychlení</t>
   </si>
+  <si>
+    <t>bez poruch</t>
+  </si>
+  <si>
+    <t>provoz 24 h</t>
+  </si>
+  <si>
+    <t>provoz 8 h</t>
+  </si>
+  <si>
+    <t>porvoz 12 h</t>
+  </si>
+  <si>
+    <t>Linky</t>
+  </si>
+  <si>
+    <t>Průměr</t>
+  </si>
+  <si>
+    <t>dokoncene transakce</t>
+  </si>
+  <si>
+    <t>interval výstupu</t>
+  </si>
+  <si>
+    <t>Ideální optimalizace</t>
+  </si>
+  <si>
+    <t>Stávající výroba</t>
+  </si>
+  <si>
+    <t>Interval mezi výstupu</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -143,17 +176,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,7 +333,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>List1!$A$2:$A$10</c:f>
+              <c:f>List1!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -332,7 +368,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$C$2:$C$10</c:f>
+              <c:f>List1!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -398,7 +434,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>List1!$A$2:$A$10</c:f>
+              <c:f>List1!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -433,7 +469,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$E$2:$E$10</c:f>
+              <c:f>List1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -499,7 +535,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>List1!$A$2:$A$10</c:f>
+              <c:f>List1!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -534,7 +570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$G$2:$G$10</c:f>
+              <c:f>List1!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -907,7 +943,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(List1!$C$59,List1!$E$59,List1!$G$59)</c:f>
+              <c:f>(List1!$C$60,List1!$E$60,List1!$G$60)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -924,7 +960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(List1!$C$60,List1!$E$60,List1!$G$60)</c:f>
+              <c:f>(List1!$C$61,List1!$E$61,List1!$G$61)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -979,7 +1015,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>(List1!$C$59,List1!$E$59,List1!$G$59)</c15:sqref>
+                          <c15:sqref>(List1!$C$60,List1!$E$60,List1!$G$60)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1002,7 +1038,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>(List1!$C$61,List1!$E$61,List1!$G$61)</c15:sqref>
+                          <c15:sqref>(List1!$C$62,List1!$E$62,List1!$G$62)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1257,7 +1293,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(List1!$C$56,List1!$E$56,List1!$G$56)</c:f>
+              <c:f>(List1!$C$57,List1!$E$57,List1!$G$57)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1274,7 +1310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(List1!$C$57,List1!$E$57,List1!$G$57)</c:f>
+              <c:f>(List1!$C$58,List1!$E$58,List1!$G$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1519,9 +1555,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6522957215476625E-2"/>
-          <c:y val="0.16207852193995381"/>
-          <c:w val="0.89012054521676798"/>
+          <c:x val="7.935781323579337E-2"/>
+          <c:y val="0.22789947445945699"/>
+          <c:w val="0.89004413391302439"/>
           <c:h val="0.54485679474823157"/>
         </c:manualLayout>
       </c:layout>
@@ -1533,7 +1569,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$C$76</c:f>
+              <c:f>List1!$C$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1556,42 +1592,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>List1!$A$77:$A$80</c:f>
+              <c:f>List1!$A$78:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$C$77:$C$80</c:f>
+              <c:f>List1!$C$78:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>7.7156246884036364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.318264014466536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.373340252129054</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>36.90812166823455</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>42.653910974521658</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45.214755883885019</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>46.42989442489349</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>47.582207219963067</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.514146482571398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1599,7 +1659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D49A-4AE6-974C-8226959AB391}"/>
+              <c16:uniqueId val="{00000000-13A2-44EF-9A9F-6E7E515E693D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1608,7 +1668,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$E$76</c:f>
+              <c:f>List1!$E$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1631,41 +1691,65 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>List1!$A$77:$A$80</c:f>
+              <c:f>List1!$A$78:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$E$77:$E$80</c:f>
+              <c:f>List1!$E$78:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>12.51117068811439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.418639609169475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.523931078493931</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50.012764871074801</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>55.286595113039503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>55.286595113039503</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>55.296803652968038</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>55.296803652968038</c:v>
                 </c:pt>
               </c:numCache>
@@ -1674,7 +1758,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D49A-4AE6-974C-8226959AB391}"/>
+              <c16:uniqueId val="{00000001-13A2-44EF-9A9F-6E7E515E693D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1683,7 +1767,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$G$76</c:f>
+              <c:f>List1!$G$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1706,41 +1790,65 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>List1!$A$77:$A$80</c:f>
+              <c:f>List1!$A$78:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$G$77:$G$80</c:f>
+              <c:f>List1!$G$78:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>14.042553191489375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.333333333333314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.523809523809547</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>123.33333333333334</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>123.33333333333334</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>123.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>123.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
@@ -1749,7 +1857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D49A-4AE6-974C-8226959AB391}"/>
+              <c16:uniqueId val="{00000002-13A2-44EF-9A9F-6E7E515E693D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1762,11 +1870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1784770655"/>
-        <c:axId val="1609873791"/>
+        <c:axId val="1168400479"/>
+        <c:axId val="1356012191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784770655"/>
+        <c:axId val="1168400479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1917,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1609873791"/>
+        <c:crossAx val="1356012191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1817,7 +1925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1609873791"/>
+        <c:axId val="1356012191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1976,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784770655"/>
+        <c:crossAx val="1168400479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1913,6 +2021,1421 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Vliv</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" baseline="0"/>
+              <a:t> pracovní doby na linkách na její  vytíženost</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>provoz 24 h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$A$108:$A$115</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Kordy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Běhouny</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bočnice</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kofekfce</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vulkanizace</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kontrola</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Průměr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$B$108:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43.768999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.742999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.194000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-474C-416B-8BF8-597D6DB056A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>porvoz 12 h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$A$108:$A$115</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Kordy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Běhouny</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bočnice</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kofekfce</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vulkanizace</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kontrola</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Průměr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$C$108:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>93.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.334000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.159000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.403999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.072000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-474C-416B-8BF8-597D6DB056A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$D$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>provoz 8 h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$A$108:$A$115</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Kordy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Běhouny</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bočnice</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kofekfce</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vulkanizace</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kontrola</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Průměr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$108:$D$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.867000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.686999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.814999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.927999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-474C-416B-8BF8-597D6DB056A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1994347536"/>
+        <c:axId val="1944913728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1994347536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1944913728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1944913728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994347536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$B$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Průměrné  celkové vytížení</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$A$146:$A$147</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ideální optimalizace</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stávající výroba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$B$146:$B$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>86.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.194000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFD2-4DCB-83FE-C471D56B0F05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2041853024"/>
+        <c:axId val="1944913312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2041853024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1944913312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1944913312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041853024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dokončené transakce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$A$146:$A$147</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ideální optimalizace</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stávající výroba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$C$146:$C$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3A1-42A2-8EDE-566A431A848B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1950529568"/>
+        <c:axId val="1944922880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1950529568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1944922880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1944922880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950529568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$D$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interval mezi výstupu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$A$146:$A$147</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ideální optimalizace</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stávající výroba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$146:$D$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D838-4C8E-AE33-B74BC9D8F920}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1994424336"/>
+        <c:axId val="1944935360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1994424336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1944935360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1944935360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994424336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2108,6 +3631,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3782,6 +5465,2018 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4141,13 +7836,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>44451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>539751</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>122238</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4177,13 +7872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>115887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>679449</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4213,13 +7908,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>84137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4248,22 +7943,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
+      <xdr:colOff>1074737</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>169862</xdr:rowOff>
+      <xdr:colOff>544512</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graf 6">
+        <xdr:cNvPr id="4" name="Graf 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E19CA2-C539-4F6F-8A2C-FD842A31AB3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC63E5E9-8956-4F7B-9156-60B4A36F5BAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4276,6 +7971,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3C0A6F-B622-41FC-83D3-DFD85099EA0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graf 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AAC79D-186F-4A92-B9E1-684D0381DB10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1682750</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>11111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graf 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E365F16-4398-4CE6-B623-CCC31495AED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1254125</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>30161</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graf 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D541D198-66F1-43C7-A024-856F2430CB59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4547,15 +8386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" customWidth="1"/>
     <col min="3" max="3" width="16.08984375" customWidth="1"/>
     <col min="4" max="4" width="19.90625" customWidth="1"/>
@@ -4588,93 +8427,93 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>59.551000000000002</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6">
+        <v>46.253999999999998</v>
+      </c>
+      <c r="C2" s="6">
         <f>100-(46.276/B2*100)</f>
-        <v>22.291817097949647</v>
-      </c>
-      <c r="D2">
-        <v>2699</v>
+        <v>-4.7563453971562808E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1961</v>
       </c>
       <c r="E2">
         <f>(100-(1958/D2*100))</f>
-        <v>27.454612819562797</v>
-      </c>
-      <c r="F2">
-        <v>194</v>
+        <v>0.15298317185109056</v>
+      </c>
+      <c r="F2" s="6">
+        <v>268</v>
       </c>
       <c r="G2">
         <f>(100-(268/F2*100))*-1</f>
-        <v>38.144329896907209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42.261000000000003</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>59.551000000000002</v>
       </c>
       <c r="C3" s="2">
         <f>100-(46.276/B3*100)</f>
-        <v>-9.5004850808073655</v>
+        <v>22.291817097949647</v>
       </c>
       <c r="D3">
-        <v>1959</v>
+        <v>2699</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">(100-(1958/D3*100))</f>
-        <v>5.104645227156368E-2</v>
+        <f>(100-(1958/D3*100))</f>
+        <v>27.454612819562797</v>
       </c>
       <c r="F3">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="1">(100-(268/F3*100))*-1</f>
-        <v>0</v>
+        <f>(100-(268/F3*100))*-1</f>
+        <v>38.144329896907209</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44.512</v>
+        <v>42.261000000000003</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C10" si="2">100-(46.276/B4*100)</f>
-        <v>-3.9629762760603882</v>
+        <f>100-(46.276/B4*100)</f>
+        <v>-9.5004850808073655</v>
       </c>
       <c r="D4">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E4:E11" si="0">(100-(1958/D4*100))</f>
+        <v>5.104645227156368E-2</v>
       </c>
       <c r="F4">
         <v>268</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G4:G11" si="1">(100-(268/F4*100))*-1</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>46.256</v>
+        <v>44.512</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.3237634036657369E-2</v>
+        <f t="shared" ref="C5:C11" si="2">100-(46.276/B5*100)</f>
+        <v>-3.9629762760603882</v>
       </c>
       <c r="D5">
         <v>1958</v>
@@ -4693,14 +8532,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>44.469000000000001</v>
+        <v>46.256</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
-        <v>-4.063504913535283</v>
+        <v>-4.3237634036657369E-2</v>
       </c>
       <c r="D6">
         <v>1958</v>
@@ -4719,14 +8558,14 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>44.615000000000002</v>
+        <v>44.469000000000001</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7229631289924896</v>
+        <v>-4.063504913535283</v>
       </c>
       <c r="D7">
         <v>1958</v>
@@ -4745,14 +8584,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>42.795999999999999</v>
+        <v>44.615000000000002</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="2"/>
-        <v>-8.1316010842134858</v>
+        <v>-3.7229631289924896</v>
       </c>
       <c r="D8">
         <v>1958</v>
@@ -4771,14 +8610,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>43.814</v>
+        <v>42.795999999999999</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="2"/>
-        <v>-5.6192084721778457</v>
+        <v>-8.1316010842134858</v>
       </c>
       <c r="D9">
         <v>1958</v>
@@ -4797,14 +8636,14 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>45.966000000000001</v>
+        <v>43.814</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="2"/>
-        <v>-0.67441152155942063</v>
+        <v>-5.6192084721778457</v>
       </c>
       <c r="D10">
         <v>1958</v>
@@ -4822,360 +8661,750 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45.966000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.67441152155942063</v>
+      </c>
+      <c r="D11">
+        <v>1958</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>268</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>41.023000000000003</v>
-      </c>
-      <c r="C33" s="4">
-        <f>100-(46.276/B33*100)</f>
-        <v>-12.805011822636089</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1958</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>268</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="8">
+        <v>41.023000000000003</v>
+      </c>
+      <c r="C34" s="8">
+        <f>100-(46.276/B34*100)</f>
+        <v>-12.805011822636089</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1958</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>268</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>19</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="2">
-        <v>50.241999999999997</v>
-      </c>
-      <c r="C57" s="2">
-        <f>100-(46.276/B57*100)</f>
-        <v>7.8937940368615784</v>
-      </c>
-      <c r="D57" s="2">
-        <v>3919</v>
-      </c>
-      <c r="E57" s="2">
-        <f>(100-(1958/D57*100))</f>
-        <v>50.038275070170961</v>
-      </c>
-      <c r="F57" s="2">
-        <v>134</v>
-      </c>
-      <c r="G57" s="2">
-        <f>(100-(268/F57*100))*-1</f>
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2">
+        <v>50.241999999999997</v>
+      </c>
+      <c r="C58" s="2">
+        <f>100-(46.276/B58*100)</f>
+        <v>7.8937940368615784</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3919</v>
+      </c>
+      <c r="E58" s="2">
+        <f>(100-(1958/D58*100))</f>
+        <v>50.038275070170961</v>
+      </c>
+      <c r="F58" s="2">
+        <v>134</v>
+      </c>
+      <c r="G58" s="2">
+        <f>(100-(268/F58*100))*-1</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="5">
-        <v>73.346999999999994</v>
-      </c>
-      <c r="C60" s="4">
-        <f>100-(46.276/B60*100)</f>
-        <v>36.90812166823455</v>
-      </c>
-      <c r="D60" s="4">
-        <v>3917</v>
-      </c>
-      <c r="E60" s="4">
-        <f>(100-(1958/D60*100))</f>
-        <v>50.012764871074801</v>
-      </c>
-      <c r="F60" s="4">
-        <v>134</v>
-      </c>
-      <c r="G60" s="4">
-        <f>(100-(268/F60*100))*-1</f>
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="9">
+        <v>73.346999999999994</v>
+      </c>
+      <c r="C61" s="8">
+        <f>100-(46.276/B61*100)</f>
+        <v>36.90812166823455</v>
+      </c>
+      <c r="D61" s="8">
+        <v>3917</v>
+      </c>
+      <c r="E61" s="8">
+        <f>(100-(1958/D61*100))</f>
+        <v>50.012764871074801</v>
+      </c>
+      <c r="F61" s="8">
+        <v>134</v>
+      </c>
+      <c r="G61" s="8">
+        <f>(100-(268/F61*100))*-1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="7">
-        <v>1</v>
-      </c>
-      <c r="B77" s="8">
-        <v>73.346999999999994</v>
-      </c>
-      <c r="C77" s="1">
-        <f>100-(46.276/B77*100)</f>
-        <v>36.90812166823455</v>
-      </c>
-      <c r="D77" s="1">
-        <v>3917</v>
-      </c>
-      <c r="E77" s="1">
-        <f>(100-(1958/D77*100))</f>
-        <v>50.012764871074801</v>
-      </c>
-      <c r="F77" s="1">
-        <v>134</v>
-      </c>
-      <c r="G77" s="1">
-        <f>(100-(268/F77*100))*-1</f>
-        <v>100</v>
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="B78" s="8">
-        <v>84.468000000000004</v>
-      </c>
-      <c r="C78" s="1">
-        <f>100-(46.276/B78*100)</f>
-        <v>45.214755883885019</v>
-      </c>
-      <c r="D78" s="1">
-        <v>4379</v>
-      </c>
-      <c r="E78" s="1">
-        <f>(100-(1958/D78*100))</f>
-        <v>55.286595113039503</v>
-      </c>
-      <c r="F78" s="1">
-        <v>120</v>
-      </c>
-      <c r="G78" s="1">
-        <f>(100-(268/F78*100))*-1</f>
-        <v>123.33333333333334</v>
+      <c r="A78" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B78" s="6">
+        <v>50.145000000000003</v>
+      </c>
+      <c r="C78" s="6">
+        <f t="shared" ref="C78:C84" si="3">100-(46.276/B78*100)</f>
+        <v>7.7156246884036364</v>
+      </c>
+      <c r="D78" s="6">
+        <v>2238</v>
+      </c>
+      <c r="E78" s="6">
+        <f t="shared" ref="E78:E85" si="4">(100-(1958/D78*100))</f>
+        <v>12.51117068811439</v>
+      </c>
+      <c r="F78" s="6">
+        <v>235</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" ref="G78:G85" si="5">(100-(268/F78*100))*-1</f>
+        <v>14.042553191489375</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="7">
-        <v>2</v>
-      </c>
-      <c r="B79">
-        <v>88.283000000000001</v>
-      </c>
-      <c r="C79" s="1">
-        <f>100-(46.276/B79*100)</f>
-        <v>47.582207219963067</v>
-      </c>
-      <c r="D79">
-        <v>4380</v>
-      </c>
-      <c r="E79" s="1">
-        <f>(100-(1958/D79*100))</f>
-        <v>55.296803652968038</v>
-      </c>
-      <c r="F79">
-        <v>120</v>
-      </c>
-      <c r="G79" s="1">
-        <f>(100-(268/F79*100))*-1</f>
-        <v>123.33333333333334</v>
+      <c r="A79" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B79" s="6">
+        <v>55.3</v>
+      </c>
+      <c r="C79" s="6">
+        <f t="shared" si="3"/>
+        <v>16.318264014466536</v>
+      </c>
+      <c r="D79" s="6">
+        <v>2661</v>
+      </c>
+      <c r="E79" s="6">
+        <f t="shared" si="4"/>
+        <v>26.418639609169475</v>
+      </c>
+      <c r="F79" s="6">
+        <v>201</v>
+      </c>
+      <c r="G79" s="6">
+        <f t="shared" si="5"/>
+        <v>33.333333333333314</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="B80">
-        <v>89.881</v>
-      </c>
-      <c r="C80" s="1">
-        <f>100-(46.276/B80*100)</f>
-        <v>48.514146482571398</v>
-      </c>
-      <c r="D80">
+      <c r="A80" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="B80" s="6">
+        <v>65.522000000000006</v>
+      </c>
+      <c r="C80" s="6">
+        <f t="shared" si="3"/>
+        <v>29.373340252129054</v>
+      </c>
+      <c r="D80" s="6">
+        <v>3134</v>
+      </c>
+      <c r="E80" s="6">
+        <f t="shared" si="4"/>
+        <v>37.523931078493931</v>
+      </c>
+      <c r="F80" s="6">
+        <v>168</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="5"/>
+        <v>59.523809523809547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>1</v>
+      </c>
+      <c r="B81" s="7">
+        <v>73.346999999999994</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" si="3"/>
+        <v>36.90812166823455</v>
+      </c>
+      <c r="D81" s="6">
+        <v>3917</v>
+      </c>
+      <c r="E81" s="6">
+        <f t="shared" si="4"/>
+        <v>50.012764871074801</v>
+      </c>
+      <c r="F81" s="6">
+        <v>134</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="B82" s="7">
+        <v>80.695999999999998</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" si="3"/>
+        <v>42.653910974521658</v>
+      </c>
+      <c r="D82" s="6">
+        <v>4379</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="4"/>
+        <v>55.286595113039503</v>
+      </c>
+      <c r="F82" s="6">
+        <v>120</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="5"/>
+        <v>123.33333333333334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="B83" s="7">
+        <v>84.468000000000004</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="3"/>
+        <v>45.214755883885019</v>
+      </c>
+      <c r="D83" s="6">
+        <v>4379</v>
+      </c>
+      <c r="E83" s="6">
+        <f t="shared" si="4"/>
+        <v>55.286595113039503</v>
+      </c>
+      <c r="F83" s="6">
+        <v>120</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="5"/>
+        <v>123.33333333333334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="B84" s="7">
+        <v>86.384</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="3"/>
+        <v>46.42989442489349</v>
+      </c>
+      <c r="D84" s="6">
         <v>4380</v>
       </c>
-      <c r="E80" s="1">
-        <f>(100-(1958/D80*100))</f>
+      <c r="E84" s="6">
+        <f t="shared" si="4"/>
         <v>55.296803652968038</v>
       </c>
-      <c r="F80">
+      <c r="F84" s="6">
         <v>120</v>
       </c>
-      <c r="G80" s="1">
-        <f>(100-(268/F80*100))*-1</f>
+      <c r="G84" s="6">
+        <f t="shared" si="5"/>
         <v>123.33333333333334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>2</v>
+      </c>
+      <c r="B85" s="6">
+        <v>88.283000000000001</v>
+      </c>
+      <c r="C85" s="6">
+        <f>100-(46.276/B85*100)</f>
+        <v>47.582207219963067</v>
+      </c>
+      <c r="D85" s="6">
+        <v>4380</v>
+      </c>
+      <c r="E85" s="6">
+        <f t="shared" si="4"/>
+        <v>55.296803652968038</v>
+      </c>
+      <c r="F85" s="6">
+        <v>120</v>
+      </c>
+      <c r="G85" s="6">
+        <f t="shared" si="5"/>
+        <v>123.33333333333334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>43.768999999999998</v>
+      </c>
+      <c r="C108">
+        <v>93.768000000000001</v>
+      </c>
+      <c r="D108">
+        <v>99.875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>21.335000000000001</v>
+      </c>
+      <c r="C109">
+        <v>71.334000000000003</v>
+      </c>
+      <c r="D109">
+        <v>87.99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="C110">
+        <v>88.159000000000006</v>
+      </c>
+      <c r="D110">
+        <v>99.87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>35.167999999999999</v>
+      </c>
+      <c r="C111">
+        <v>85.167000000000002</v>
+      </c>
+      <c r="D111">
+        <v>99.867000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>27.742999999999999</v>
+      </c>
+      <c r="C112">
+        <v>77.707999999999998</v>
+      </c>
+      <c r="D112">
+        <v>87.707999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113">
+        <v>44.454999999999998</v>
+      </c>
+      <c r="C113">
+        <v>94.403999999999996</v>
+      </c>
+      <c r="D113">
+        <v>99.686999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>5.5880000000000001</v>
+      </c>
+      <c r="C114">
+        <v>55.582000000000001</v>
+      </c>
+      <c r="D114">
+        <v>70.814999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115">
+        <v>43.194000000000003</v>
+      </c>
+      <c r="C115">
+        <v>82.072000000000003</v>
+      </c>
+      <c r="D115">
+        <v>90.927999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C116">
+        <f>100-(43.194/C115*100)</f>
+        <v>47.370601423140656</v>
+      </c>
+      <c r="D116">
+        <f>100-(43.194/D115*100)</f>
+        <v>52.49648073200774</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139">
+        <v>1958</v>
+      </c>
+      <c r="C139">
+        <v>1956</v>
+      </c>
+      <c r="D139">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140">
+        <v>268</v>
+      </c>
+      <c r="C140">
+        <v>268</v>
+      </c>
+      <c r="D140">
+        <v>362</v>
+      </c>
+      <c r="E140">
+        <f>100-(C140/D140*100)</f>
+        <v>25.966850828729278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C141">
+        <f>100-(B139/C139*100)</f>
+        <v>-0.10224948875254825</v>
+      </c>
+      <c r="D141">
+        <f>100-(B139/D139*100)</f>
+        <v>-34.755677907776999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B145" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="6">
+        <v>86.16</v>
+      </c>
+      <c r="C146" s="6">
+        <v>3913</v>
+      </c>
+      <c r="D146" s="6">
+        <v>134</v>
+      </c>
+      <c r="E146">
+        <f>(100-(268/D146*100))*-1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147">
+        <v>43.194000000000003</v>
+      </c>
+      <c r="C147">
+        <v>1958</v>
+      </c>
+      <c r="D147">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <f>(B146/B147*100) - 100</f>
+        <v>99.472148909570734</v>
+      </c>
+      <c r="C148">
+        <f>100-(C147/C146*100)</f>
+        <v>49.961666240736015</v>
+      </c>
+      <c r="D148">
+        <f>100-(D147/D146*100)</f>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
